--- a/swings/2021-11-22/BINANCE_SPOT_MLN_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_MLN_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +890,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -979,6 +1002,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1057,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1110,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1163,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1216,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1241,6 +1271,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1295,6 +1328,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1347,6 +1383,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1438,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1550,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1613,6 +1658,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1667,6 +1715,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1770,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1823,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1878,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>111.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1935,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1933,6 +1992,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>111.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1985,6 +2047,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2037,6 +2100,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2091,6 +2155,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2145,6 +2212,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2197,6 +2267,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2251,6 +2322,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2305,6 +2379,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2357,6 +2434,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2411,6 +2489,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2465,6 +2546,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2517,6 +2601,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2569,6 +2654,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2623,6 +2709,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2677,6 +2766,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2731,6 +2823,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2785,6 +2880,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2837,6 +2935,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2889,6 +2988,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2943,6 +3043,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>112.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2997,6 +3100,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3051,6 +3157,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3103,6 +3212,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3157,6 +3267,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3211,6 +3324,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3265,6 +3381,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3317,6 +3436,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3369,6 +3489,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3423,6 +3544,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3477,6 +3601,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3531,6 +3658,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3585,6 +3715,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3639,6 +3772,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3693,6 +3829,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>111.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3747,6 +3886,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3801,6 +3943,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3853,6 +3998,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3905,6 +4051,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3957,6 +4104,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4011,6 +4159,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4063,6 +4214,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4115,6 +4267,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4167,6 +4320,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4219,6 +4373,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4273,6 +4428,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4325,6 +4483,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4379,6 +4538,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4431,6 +4593,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4483,6 +4646,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4535,6 +4699,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4587,6 +4752,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4641,6 +4807,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>110.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4695,6 +4864,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4749,6 +4921,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4801,6 +4976,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4855,6 +5031,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4907,6 +5086,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4961,6 +5141,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5013,6 +5196,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5067,6 +5251,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5121,6 +5308,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>112.9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5175,6 +5365,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>113.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5227,6 +5420,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5281,6 +5475,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5335,6 +5532,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5389,6 +5589,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5441,6 +5644,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5495,6 +5699,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>112.9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5549,6 +5756,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5601,6 +5811,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5653,6 +5864,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5707,6 +5919,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>112.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5761,6 +5976,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5815,6 +6033,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5867,6 +6088,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5919,6 +6141,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5973,6 +6196,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>111.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6027,6 +6253,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6081,6 +6310,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6135,6 +6367,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6187,6 +6422,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6241,6 +6477,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6295,6 +6534,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6349,6 +6591,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>110.6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6403,6 +6648,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>111.3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6455,6 +6703,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6507,6 +6756,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6561,6 +6811,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6615,6 +6868,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6669,6 +6925,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>108.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6723,6 +6982,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6775,6 +7037,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6829,6 +7092,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>109.1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6883,6 +7149,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>109.4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6935,6 +7204,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6987,6 +7257,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7041,6 +7312,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>108.3</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7093,6 +7367,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7145,6 +7420,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7199,6 +7475,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7253,6 +7532,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>108.7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7305,6 +7587,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7359,6 +7642,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7413,6 +7699,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7467,6 +7756,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>109.1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7521,6 +7813,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>108.9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7573,6 +7868,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7627,6 +7923,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7679,6 +7978,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7733,6 +8033,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7787,6 +8090,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7841,6 +8147,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>108.5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7893,6 +8202,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7947,6 +8257,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>108.7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7999,6 +8312,7 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8053,6 +8367,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>107.6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8107,6 +8424,9 @@
           <t>MLNUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>108.9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8160,6 +8480,9 @@
         <is>
           <t>MLNUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>108.5</v>
       </c>
     </row>
   </sheetData>
